--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_equalweightpool.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_equalweightpool.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -192,55 +243,55 @@
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="6" max="6" width="15.64453125" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
     <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="15.77734375" customWidth="true"/>
+    <col min="9" max="9" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="16.24609375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.27627479893830598</v>
+        <v>0.25876907427925327</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28511537382080815</v>
+        <v>0.25824243359925153</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0035878752691638044</v>
+        <v>-0.0035673536005323657</v>
       </c>
       <c r="E3" s="0">
-        <v>7.0816785746392018e-05</v>
+        <v>-0.00023155439636097543</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0044749642064709494</v>
+        <v>0.00031873331384149459</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00061394376315774656</v>
+        <v>0.0014659114763369739</v>
       </c>
       <c r="H3" s="0">
-        <v>4.4877728978620907e-05</v>
+        <v>-0.00025418989519062669</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00029916217545913486</v>
+        <v>0.00046329403897111751</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00034725930444379216</v>
+        <v>0.0012785183829325253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.31106293601936713</v>
+        <v>0.33152398089159563</v>
       </c>
       <c r="C4" s="0">
-        <v>0.026631988192062323</v>
+        <v>0.063571331452848046</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00018877774817369243</v>
+        <v>-0.00058333164360211624</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.000369644105163939</v>
+        <v>3.2390366817626736e-05</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.5312687311568569e-05</v>
+        <v>0.0010640123845668593</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00035093159076680192</v>
+        <v>0.0056552635903812671</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00064154686828419487</v>
+        <v>0.0040999287886507845</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00043193210499470336</v>
+        <v>-0.00055804764731842704</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.32468331034207887</v>
+        <v>0.33395914701026497</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0049994384199978171</v>
+        <v>0.0021121918999031548</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0022214955982357153</v>
+        <v>-0.0020497841403314338</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0044238190504898856</v>
+        <v>0.013232539567528092</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00062340670361651657</v>
+        <v>-0.0058219031138285349</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0004313006716532472</v>
+        <v>0.00034735979130207149</v>
       </c>
       <c r="I5" s="0">
-        <v>-9.410170794032252e-05</v>
+        <v>0.00046784661949137812</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0010150155866587851</v>
+        <v>-0.0058530845053954006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.30915053257726649</v>
+        <v>0.27239332124646465</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.018048908153919005</v>
+        <v>-0.043474684368551508</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00016805844341502218</v>
+        <v>-0.0076167650482763449</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0002072898226798698</v>
+        <v>0.00066903839419570337</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-2.4568463057284204e-05</v>
+        <v>0.0021346160985247311</v>
       </c>
       <c r="I6" s="0">
-        <v>0.00095455082168629439</v>
+        <v>-0.013088093339496206</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.0012107997643828194</v>
+        <v>-0.00018993750019669076</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29127538510860818</v>
+        <v>0.25584191265481937</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0047525401012874285</v>
+        <v>-0.034709232939510413</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0057581059293186536</v>
+        <v>-0.0013487679974290598</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0078312782147367966</v>
+        <v>0.014098532757799166</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00038307203422101272</v>
+        <v>0.003900220583526094</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.00017193754347704707</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00013610197887101708</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00039174426481164426</v>
+        <v>0.0015078390039689471</v>
       </c>
     </row>
     <row r="8">
